--- a/SFO_stat.xlsx
+++ b/SFO_stat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="2017" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>Сельское, лесное хозяйство, охота, рыболовство и рыбоводство</t>
   </si>
@@ -121,6 +122,11 @@
   </si>
   <si>
     <t>Деятельность гостиниц и предприятий общественного питания</t>
+  </si>
+  <si>
+    <t>СРЕДНЕГОДОВАЯ ЧИСЛЕННОСТЬ ЗАНЯТЫХ ПО ВИДАМ ЭКОНОМИЧЕСКОЙ ДЕЯТЕЛЬНОСТИ
+(тысяч человек)
+2018</t>
   </si>
 </sst>
 </file>
@@ -211,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -291,6 +297,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,15 +583,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" ht="126.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1726,13 +1735,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28">
+        <v>2013</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
